--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Mif-Cd74.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Mif-Cd74.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.401376</v>
+        <v>5.712771666666666</v>
       </c>
       <c r="H2">
-        <v>85.204128</v>
+        <v>17.138315</v>
       </c>
       <c r="I2">
-        <v>0.2813463917610604</v>
+        <v>0.1683613830606884</v>
       </c>
       <c r="J2">
-        <v>0.2813463917610605</v>
+        <v>0.1683613830606885</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>91.65675166666666</v>
+        <v>0.8272046666666667</v>
       </c>
       <c r="N2">
-        <v>274.970255</v>
+        <v>2.481614</v>
       </c>
       <c r="O2">
-        <v>0.9732857812565366</v>
+        <v>0.2219283187021488</v>
       </c>
       <c r="P2">
-        <v>0.9732857812565366</v>
+        <v>0.2219283187021487</v>
       </c>
       <c r="Q2">
-        <v>2603.177867023627</v>
+        <v>4.725631382267777</v>
       </c>
       <c r="R2">
-        <v>23428.60080321264</v>
+        <v>42.53068244041</v>
       </c>
       <c r="S2">
-        <v>0.2738304427088713</v>
+        <v>0.03736415867702701</v>
       </c>
       <c r="T2">
-        <v>0.2738304427088714</v>
+        <v>0.03736415867702701</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.401376</v>
+        <v>5.712771666666666</v>
       </c>
       <c r="H3">
-        <v>85.204128</v>
+        <v>17.138315</v>
       </c>
       <c r="I3">
-        <v>0.2813463917610604</v>
+        <v>0.1683613830606884</v>
       </c>
       <c r="J3">
-        <v>0.2813463917610605</v>
+        <v>0.1683613830606885</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>1.913276</v>
       </c>
       <c r="O3">
-        <v>0.006772239151537979</v>
+        <v>0.1711024058911549</v>
       </c>
       <c r="P3">
-        <v>0.006772239151537979</v>
+        <v>0.1711024058911549</v>
       </c>
       <c r="Q3">
-        <v>18.11322368925867</v>
+        <v>3.643369641104444</v>
       </c>
       <c r="R3">
-        <v>163.019013203328</v>
+        <v>32.79032676993999</v>
       </c>
       <c r="S3">
-        <v>0.001905345049428195</v>
+        <v>0.02880703770084611</v>
       </c>
       <c r="T3">
-        <v>0.001905345049428196</v>
+        <v>0.02880703770084612</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.401376</v>
+        <v>5.712771666666666</v>
       </c>
       <c r="H4">
-        <v>85.204128</v>
+        <v>17.138315</v>
       </c>
       <c r="I4">
-        <v>0.2813463917610604</v>
+        <v>0.1683613830606884</v>
       </c>
       <c r="J4">
-        <v>0.2813463917610605</v>
+        <v>0.1683613830606885</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.877986</v>
+        <v>2.262387333333333</v>
       </c>
       <c r="N4">
-        <v>5.633958</v>
+        <v>6.787162</v>
       </c>
       <c r="O4">
-        <v>0.01994197959192537</v>
+        <v>0.6069692754066963</v>
       </c>
       <c r="P4">
-        <v>0.01994197959192537</v>
+        <v>0.6069692754066964</v>
       </c>
       <c r="Q4">
-        <v>53.337386508736</v>
+        <v>12.92450225689222</v>
       </c>
       <c r="R4">
-        <v>480.036478578624</v>
+        <v>116.32052031203</v>
       </c>
       <c r="S4">
-        <v>0.005610604002760906</v>
+        <v>0.1021901866828153</v>
       </c>
       <c r="T4">
-        <v>0.005610604002760908</v>
+        <v>0.1021901866828153</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>44.491124</v>
       </c>
       <c r="I5">
-        <v>0.1469109243485705</v>
+        <v>0.4370667227533506</v>
       </c>
       <c r="J5">
-        <v>0.1469109243485705</v>
+        <v>0.4370667227533506</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>91.65675166666666</v>
+        <v>0.8272046666666667</v>
       </c>
       <c r="N5">
-        <v>274.970255</v>
+        <v>2.481614</v>
       </c>
       <c r="O5">
-        <v>0.9732857812565366</v>
+        <v>0.2219283187021488</v>
       </c>
       <c r="P5">
-        <v>0.9732857812565366</v>
+        <v>0.2219283187021487</v>
       </c>
       <c r="Q5">
-        <v>1359.303967946291</v>
+        <v>12.26775513268178</v>
       </c>
       <c r="R5">
-        <v>12233.73571151662</v>
+        <v>110.409796194136</v>
       </c>
       <c r="S5">
-        <v>0.1429863137797184</v>
+        <v>0.09699748294130928</v>
       </c>
       <c r="T5">
-        <v>0.1429863137797184</v>
+        <v>0.09699748294130926</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>44.491124</v>
       </c>
       <c r="I6">
-        <v>0.1469109243485705</v>
+        <v>0.4370667227533506</v>
       </c>
       <c r="J6">
-        <v>0.1469109243485705</v>
+        <v>0.4370667227533506</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>1.913276</v>
       </c>
       <c r="O6">
-        <v>0.006772239151537979</v>
+        <v>0.1711024058911549</v>
       </c>
       <c r="P6">
-        <v>0.006772239151537979</v>
+        <v>0.1711024058911549</v>
       </c>
       <c r="Q6">
         <v>9.458199973580445</v>
       </c>
       <c r="R6">
-        <v>85.12379976222401</v>
+        <v>85.123799762224</v>
       </c>
       <c r="S6">
-        <v>0.0009949159136620233</v>
+        <v>0.07478316779806064</v>
       </c>
       <c r="T6">
-        <v>0.0009949159136620233</v>
+        <v>0.07478316779806064</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>44.491124</v>
       </c>
       <c r="I7">
-        <v>0.1469109243485705</v>
+        <v>0.4370667227533506</v>
       </c>
       <c r="J7">
-        <v>0.1469109243485705</v>
+        <v>0.4370667227533506</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.877986</v>
+        <v>2.262387333333333</v>
       </c>
       <c r="N7">
-        <v>5.633958</v>
+        <v>6.787162</v>
       </c>
       <c r="O7">
-        <v>0.01994197959192537</v>
+        <v>0.6069692754066963</v>
       </c>
       <c r="P7">
-        <v>0.01994197959192537</v>
+        <v>0.6069692754066964</v>
       </c>
       <c r="Q7">
-        <v>27.85123599875466</v>
+        <v>33.55205179445422</v>
       </c>
       <c r="R7">
-        <v>250.661123988792</v>
+        <v>301.968466150088</v>
       </c>
       <c r="S7">
-        <v>0.002929694655190085</v>
+        <v>0.2652860720139806</v>
       </c>
       <c r="T7">
-        <v>0.002929694655190085</v>
+        <v>0.2652860720139807</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>57.71632200000001</v>
+        <v>13.388457</v>
       </c>
       <c r="H8">
-        <v>173.148966</v>
+        <v>40.165371</v>
       </c>
       <c r="I8">
-        <v>0.5717426838903691</v>
+        <v>0.3945718941859609</v>
       </c>
       <c r="J8">
-        <v>0.5717426838903691</v>
+        <v>0.3945718941859609</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>91.65675166666666</v>
+        <v>0.8272046666666667</v>
       </c>
       <c r="N8">
-        <v>274.970255</v>
+        <v>2.481614</v>
       </c>
       <c r="O8">
-        <v>0.9732857812565366</v>
+        <v>0.2219283187021488</v>
       </c>
       <c r="P8">
-        <v>0.9732857812565366</v>
+        <v>0.2219283187021487</v>
       </c>
       <c r="Q8">
-        <v>5290.090592667371</v>
+        <v>11.074994109866</v>
       </c>
       <c r="R8">
-        <v>47610.81533400634</v>
+        <v>99.67494698879401</v>
       </c>
       <c r="S8">
-        <v>0.5564690247679469</v>
+        <v>0.08756667708381247</v>
       </c>
       <c r="T8">
-        <v>0.5564690247679469</v>
+        <v>0.08756667708381245</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>57.71632200000001</v>
+        <v>13.388457</v>
       </c>
       <c r="H9">
-        <v>173.148966</v>
+        <v>40.165371</v>
       </c>
       <c r="I9">
-        <v>0.5717426838903691</v>
+        <v>0.3945718941859609</v>
       </c>
       <c r="J9">
-        <v>0.5717426838903691</v>
+        <v>0.3945718941859609</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>1.913276</v>
       </c>
       <c r="O9">
-        <v>0.006772239151537979</v>
+        <v>0.1711024058911549</v>
       </c>
       <c r="P9">
-        <v>0.006772239151537979</v>
+        <v>0.1711024058911549</v>
       </c>
       <c r="Q9">
-        <v>36.80908456362401</v>
+        <v>8.538604485044001</v>
       </c>
       <c r="R9">
-        <v>331.2817610726161</v>
+        <v>76.847440365396</v>
       </c>
       <c r="S9">
-        <v>0.00387197818844776</v>
+        <v>0.06751220039224809</v>
       </c>
       <c r="T9">
-        <v>0.00387197818844776</v>
+        <v>0.06751220039224809</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>57.71632200000001</v>
+        <v>13.388457</v>
       </c>
       <c r="H10">
-        <v>173.148966</v>
+        <v>40.165371</v>
       </c>
       <c r="I10">
-        <v>0.5717426838903691</v>
+        <v>0.3945718941859609</v>
       </c>
       <c r="J10">
-        <v>0.5717426838903691</v>
+        <v>0.3945718941859609</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.877986</v>
+        <v>2.262387333333333</v>
       </c>
       <c r="N10">
-        <v>5.633958</v>
+        <v>6.787162</v>
       </c>
       <c r="O10">
-        <v>0.01994197959192537</v>
+        <v>0.6069692754066963</v>
       </c>
       <c r="P10">
-        <v>0.01994197959192537</v>
+        <v>0.6069692754066964</v>
       </c>
       <c r="Q10">
-        <v>108.390444687492</v>
+        <v>30.289875529678</v>
       </c>
       <c r="R10">
-        <v>975.5140021874281</v>
+        <v>272.608879767102</v>
       </c>
       <c r="S10">
-        <v>0.01140168093397438</v>
+        <v>0.2394930167099004</v>
       </c>
       <c r="T10">
-        <v>0.01140168093397438</v>
+        <v>0.2394930167099004</v>
       </c>
     </row>
   </sheetData>
